--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1963.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1963.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.003*"exchange" + 0.003*"currency" + 0.003*"may" + 0.003*"import" + 0.003*"bank" + 0.003*"payment" + 0.003*"rom" + 0.003*"account" + 0.002*"foreign" + 0.002*"export"</t>
-  </si>
-  <si>
-    <t>0.002*"exchange" + 0.001*"import" + 0.001*"account" + 0.001*"currency" + 0.001*"export" + 0.001*"may" + 0.001*"country" + 0.001*"bank" + 0.001*"foreign" + 0.001*"rom"</t>
-  </si>
-  <si>
-    <t>0.003*"exchange" + 0.002*"bank" + 0.002*"import" + 0.002*"payment" + 0.002*"account" + 0.002*"may" + 0.002*"rom" + 0.002*"foreign" + 0.002*"export" + 0.002*"country"</t>
-  </si>
-  <si>
-    <t>0.021*"import" + 0.020*"exchange" + 0.015*"may" + 0.013*"payment" + 0.013*"bank" + 0.013*"account" + 0.013*"currency" + 0.012*"foreign" + 0.012*"export" + 0.012*"country"</t>
-  </si>
-  <si>
-    <t>0.008*"import" + 0.007*"exchange" + 0.007*"export" + 0.006*"currency" + 0.005*"rom" + 0.005*"bank" + 0.005*"country" + 0.005*"payment" + 0.005*"per" + 0.004*"may"</t>
+    <t>0.032*"redistribution" + 0.031*"exchange" + 0.027*"control" + 0.025*"dollar" + 0.023*"agreement" + 0.021*"rate" + 0.015*"value" + 0.015*"change" + 0.015*"system" + 0.013*"par"</t>
+  </si>
+  <si>
+    <t>0.053*"fund" + 0.041*"monetary" + 0.040*"international" + 0.021*"rate" + 0.020*"country" + 0.015*"rom" + 0.015*"market" + 0.014*"year" + 0.009*"import" + 0.008*"limit"</t>
+  </si>
+  <si>
+    <t>0.034*"account" + 0.030*"capital" + 0.019*"investment" + 0.018*"nonresident" + 0.018*"may" + 0.018*"foreign" + 0.017*"transfer" + 0.014*"abroad" + 0.013*"ing" + 0.012*"rate"</t>
+  </si>
+  <si>
+    <t>0.083*"import" + 0.043*"export" + 0.036*"per" + 0.036*"license" + 0.026*"cent" + 0.023*"good" + 0.014*"u" + 0.012*"require" + 0.012*"list" + 0.012*"certain"</t>
+  </si>
+  <si>
+    <t>0.038*"exchange" + 0.035*"bank" + 0.030*"may" + 0.029*"currency" + 0.027*"payment" + 0.023*"foreign" + 0.022*"area" + 0.020*"sterling" + 0.019*"country" + 0.018*"account"</t>
   </si>
 </sst>
 </file>
